--- a/result/Pfaff's.xlsx
+++ b/result/Pfaff's.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>122,000</t>
   </si>
@@ -31,46 +31,31 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Pfaff's beer cellar - Wikipedia</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Pfaff%27s_beer_cellar</t>
-  </si>
-  <si>
-    <t>The Vault at Pfaff's: Welcome</t>
-  </si>
-  <si>
-    <t>https://pfaffs.web.lehigh.edu/</t>
-  </si>
-  <si>
-    <t>Pfaff's Inc: Pfaff's Inc. | Commercial Glass | Painting | Triad ...</t>
-  </si>
-  <si>
-    <t>https://www.pfaffsinc.com/</t>
-  </si>
-  <si>
-    <t>PFAFF sewing machines- Premier precision machines ...</t>
-  </si>
-  <si>
-    <t>https://www.pfaff.com/en/</t>
-  </si>
-  <si>
-    <t>Pfaff's Inc - Home - Facebook</t>
-  </si>
-  <si>
-    <t>Glass, Mirrors, Custom Shower Doors, Paint, Wallpaper, Blinds. Installation Available.... 1550 s. Stratford Rd., Winston-Salem, NC 27103.</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pfaffsinc/</t>
-  </si>
-  <si>
-    <t>PFAFF'S BAKERY, Pontiac - Restaurant Reviews ... - TripAdvisor</t>
-  </si>
-  <si>
-    <t>Pfaff's Bakery, Pontiac: See 34 unbiased reviews of Pfaff's Bakery, rated 5 of 5 on Tripadvisor and ranked #5 of 37 restaurants in Pontiac.</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/Restaurant_Review-g36565-d10903321-Reviews-Pfaff_s_Bakery-Pontiac_Illinois.html</t>
+    <t>A Visit to Pfaff's — The Gotham Center for New York City History</t>
+  </si>
+  <si>
+    <t>Apr 5, 2016 — Pfaff's saloon was the site of an incredibly important cultural movement, the meeting place of America's first Bohemians. Their leader, Henry ...</t>
+  </si>
+  <si>
+    <t>https://www.gothamcenter.org/blog/a-visit-to-pfaffs</t>
+  </si>
+  <si>
+    <t>Donald Yannella, "Pfaff's Restaurant" (Criticism)</t>
+  </si>
+  <si>
+    <t>by D Yannella — Located at 647 Broadway, two buildings north of Bleeker Street and on the west side of the thoroughfare, Charles Ignatius Pfaff's restaurant was in New York's ...</t>
+  </si>
+  <si>
+    <t>https://whitmanarchive.org/criticism/current/encyclopedia/entry_590.html</t>
+  </si>
+  <si>
+    <t>Pfaff's celebrates 60 years in the community</t>
+  </si>
+  <si>
+    <t>Apr 26, 2014 — Pfaff's Bakery, with locations in Pontiac and Dwight, is celebrating its 60th anniversary Monday through Wednesday with special deals and ...</t>
+  </si>
+  <si>
+    <t>https://www.pontiacdailyleader.com/story/news/2014/04/26/pfaff-8217-s-celebrates-60/37507169007/</t>
   </si>
   <si>
     <t>Pfaff's Old Time Farm – Farm with fresh Christmas trees and ...</t>
@@ -82,33 +67,60 @@
     <t>https://www.pfaffsfarm.com/</t>
   </si>
   <si>
-    <t>A Visit to Pfaff's — The Gotham Center for New York City History</t>
-  </si>
-  <si>
-    <t>Apr 5, 2016 — Pfaff's saloon was the site of an incredibly important cultural movement, the meeting place of America's first Bohemians. Their leader, Henry ...</t>
-  </si>
-  <si>
-    <t>https://www.gothamcenter.org/blog/a-visit-to-pfaffs</t>
-  </si>
-  <si>
-    <t>Donald Yannella, "Pfaff's Restaurant" (Criticism)</t>
-  </si>
-  <si>
-    <t>by D Yannella — In the age before air conditioning many an oyster bar, beer hall, or restaurant was in a basement or cellar. And so was Pfaff's, the Bohemian gathering place ...</t>
-  </si>
-  <si>
-    <t>https://whitmanarchive.org/criticism/current/encyclopedia/entry_590.html</t>
-  </si>
-  <si>
     <t>Pfaff's - The American Menu</t>
   </si>
   <si>
-    <t>2017年9月23日 — Proprietor Charles Ignatius Pfaff came in the early 1850s as part of this diaspora. And while the influx ignited an anti-immigrant backlash, ...</t>
+    <t>Sep 23, 2017 — Proprietor Charles Ignatius Pfaff came in the early 1850s as part of this diaspora. And while the influx ignited an anti-immigrant backlash, ...</t>
   </si>
   <si>
     <t>https://www.theamericanmenu.com/2017/09/pfaffs.html</t>
   </si>
   <si>
+    <t>Brad Pfaff for State Senate</t>
+  </si>
+  <si>
+    <t>Brad Pfaff for State Senate: “I grew up on a farm here in rural La Crosse County where I learned at a young age that when times are tough, you pull together ...</t>
+  </si>
+  <si>
+    <t>https://www.bradpfaff.com/</t>
+  </si>
+  <si>
+    <t>Pfaff's Old Time Christmas Tree and Pumpkin Farm</t>
+  </si>
+  <si>
+    <t>21 reviews of Pfaff's Old Time Christmas Tree and Pumpkin Farm "Unfurtunately I am visiting Seattle by plane this year, so I can't bring a Christmas tree ...</t>
+  </si>
+  <si>
+    <t>https://www.yelp.com/biz/pfaffs-old-time-christmas-tree-and-pumpkin-farm-auburn</t>
+  </si>
+  <si>
+    <t>PFAFF'S - 1550 S Stratford Rd, Winston Salem, NC</t>
+  </si>
+  <si>
+    <t>3 reviews of Pfaff's "I ran in here on a Saturday to get a piece of glass for a serving tray. Parking is a little awkward at this store, as all spots are ...</t>
+  </si>
+  <si>
+    <t>https://m.yelp.com/biz/pfaffs-winston-salem-4</t>
+  </si>
+  <si>
+    <t>Pfaff's Home Decorating Center - Winston Salem, NC</t>
+  </si>
+  <si>
+    <t>See reviews for Pfaff's Home Decorating Center in Winston Salem, NC at 1550 S Stratford Rd from Angi members or join today to leave your own review.</t>
+  </si>
+  <si>
+    <t>https://www.angi.com/companylist/us/nc/winston-salem/pfaff%27s-home-decorating-center-reviews-2485834.htm</t>
+  </si>
+  <si>
+    <t>Ice Cream, Gifts - Pfaff's Corner - Grand Haven, Michigan</t>
+  </si>
+  <si>
+    <t>Pfaff's Corner - Washington Square in Grand Haven, MI is home to an old fashion soda fountain, ice cream, gifts, and coffee shop.</t>
+  </si>
+  <si>
+    <t>https://pfaffscorner.com/</t>
+  </si>
+  <si>
     <t>PFAFF Industriesysteme und Maschinen GmbH : Innovation ...</t>
   </si>
   <si>
@@ -118,94 +130,31 @@
     <t>https://www.pfaff-industrial.com/en</t>
   </si>
   <si>
-    <t>Pfaff Quilt Ambition 630 IDT - Sewing Machines Ireland</t>
-  </si>
-  <si>
-    <t>https://www.sewingmachines.ie/shop/quilting-machines/pfaff-q/pfaff-quilt-ambition-630-idt/</t>
-  </si>
-  <si>
-    <t>pfaff - Wiktionary</t>
-  </si>
-  <si>
-    <t>pfaff (third-person singular simple present pfaffs, present participle pfaffing, simple past and past participle pfaffed).</t>
-  </si>
-  <si>
-    <t>https://en.wiktionary.org/wiki/pfaff</t>
-  </si>
-  <si>
-    <t>Catalog: Judy Pfaff - Tandem Press</t>
-  </si>
-  <si>
-    <t>For the past thirty years Judy Pfaff's irreverent, idiosyncratic installations have regularly challenged expectations to produce an art of great originality and ...</t>
-  </si>
-  <si>
-    <t>https://tandempress.wisc.edu/artwork/catalog-pfaff/</t>
-  </si>
-  <si>
-    <t>Pfaff v. Wells Electronics, Inc. :: 525 U.S. 55 (1998)</t>
-  </si>
-  <si>
-    <t>In early 1981, petitioner Pfaff designed a new computer chip socket and sent detailed engineering drawings of the socket to a manufacturer. He also showed a ...</t>
-  </si>
-  <si>
-    <t>https://supreme.justia.com/cases/federal/us/525/55/</t>
-  </si>
-  <si>
-    <t>Pfaff's Old Time Christmas Tree and Pumpkin Farm - Yelp</t>
-  </si>
-  <si>
-    <t>https://www.yelp.com/biz/pfaffs-old-time-christmas-tree-and-pumpkin-farm-auburn</t>
-  </si>
-  <si>
-    <t>Pfaff's Problem and Its Generalizations - J. A. Schouten</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Pfaffs-Problem-Its-Generalizations-Schouten/dp/0828402213</t>
-  </si>
-  <si>
-    <t>Michaila Pfaff's Profile - Meadowlark Elementary</t>
-  </si>
-  <si>
-    <t>Faculty &amp; Staff Pages / Library / Michaila Pfaff. Michaila Pfaff's Profile. Michaila Pfaff's Profile. Name: Michaila Pfaff ...</t>
-  </si>
-  <si>
-    <t>https://meadowlark.usd385.org/192818_4</t>
-  </si>
-  <si>
-    <t>Pfaff sewing machines discounted offers | Sewshop</t>
-  </si>
-  <si>
-    <t>Item 1 - 13 of 13 — Pfaff Sewing Machines Mechanical and Electronic Online Sale. Buy your Pfaff sewing machine at the best price.</t>
-  </si>
-  <si>
-    <t>https://www.sewshop.eu/en/83-pfaff</t>
-  </si>
-  <si>
-    <t>Pfaff Auto: Car Dealership Southern Ontario</t>
-  </si>
-  <si>
-    <t>Pfaff Auto Vehicles in GTA &amp; Southern Ontario has ALL makes &amp; Models for sale. Call us for GTA &amp; Southern Ontario Vehicles Specials and Promotions.</t>
-  </si>
-  <si>
-    <t>https://www.pfaffauto.com/</t>
-  </si>
-  <si>
-    <t>Pfaff's Old Time Farm (@pfaffsfarm) • Instagram photos and ...</t>
-  </si>
-  <si>
-    <t>Pfaff's Old Time Farm. Pfaff Farm is a family run farm with Christmas Trees and Pumpkins! www.pfaffsfarm.com. 's profile picture.</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/pfaffsfarm/</t>
-  </si>
-  <si>
-    <t>Donald W. Pfaff, Ph.D. - The Rockefeller University</t>
-  </si>
-  <si>
-    <t>The Pfaff lab began by asking whether it is possible to demonstrate the mechanisms causing the production of a vertebrate behavior. The answer is yes.</t>
-  </si>
-  <si>
-    <t>https://www.rockefeller.edu/our-scientists/emeritus-faculty/887-donald-w-pfaff/</t>
+    <t>Pfaff Motorsports</t>
+  </si>
+  <si>
+    <t>Pfaff Motorsports is one of the most successful sportscar racing teams in North America over the past decade. The team has led over 5,000 laps, ...</t>
+  </si>
+  <si>
+    <t>https://www.pfaffmotorsports.com/</t>
+  </si>
+  <si>
+    <t>De Pfaffs (TV Series 2002</t>
+  </si>
+  <si>
+    <t>De Pfaffs: With Jean-Marie Pfaff, Carmen Seth, Edilbert Seth, Sam Gooris. This long-running, popular Flemish series follows the daily lives, both public and ...</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt0381794/</t>
+  </si>
+  <si>
+    <t>John Pfaff</t>
+  </si>
+  <si>
+    <t>Research and Teaching Areas. Prisons; Statistics/Econometrics; Criminal Law; Social Science &amp; Law; Sentencing Law. Bio. John Pfaff is a Professor of Law ...</t>
+  </si>
+  <si>
+    <t>https://www.fordham.edu/info/23171/john_pfaff</t>
   </si>
 </sst>
 </file>
@@ -550,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,8 +526,11 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -586,10 +538,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -597,10 +552,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -608,10 +566,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -619,13 +580,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -633,13 +594,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -647,13 +608,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -661,13 +622,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -675,13 +636,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -689,10 +650,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -700,10 +664,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -711,10 +678,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -722,10 +692,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -733,13 +706,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -747,13 +720,13 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -761,13 +734,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -775,13 +748,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -789,13 +762,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -803,13 +776,13 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -817,13 +790,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -831,10 +804,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -842,339 +818,13 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1201,31 +851,6 @@
     <hyperlink ref="D21" r:id="rId20"/>
     <hyperlink ref="D22" r:id="rId21"/>
     <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="D37" r:id="rId36"/>
-    <hyperlink ref="D38" r:id="rId37"/>
-    <hyperlink ref="D39" r:id="rId38"/>
-    <hyperlink ref="D40" r:id="rId39"/>
-    <hyperlink ref="D41" r:id="rId40"/>
-    <hyperlink ref="D42" r:id="rId41"/>
-    <hyperlink ref="D43" r:id="rId42"/>
-    <hyperlink ref="D44" r:id="rId43"/>
-    <hyperlink ref="D45" r:id="rId44"/>
-    <hyperlink ref="D46" r:id="rId45"/>
-    <hyperlink ref="D47" r:id="rId46"/>
-    <hyperlink ref="D48" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
